--- a/simulations/cleaned_inclusion_exclusion/Chou_2003 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Chou_2003 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>191</v>
       </c>
       <c r="C2">
-        <v>768</v>
+        <v>216</v>
       </c>
       <c r="D2">
-        <v>479.5</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <v>625</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>642</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>351</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>643</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>323.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>192</v>
       </c>
       <c r="C6">
-        <v>769</v>
+        <v>215</v>
       </c>
       <c r="D6">
-        <v>480.5</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>664</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>348.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>658</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>339.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>1545</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>1528</v>
       </c>
       <c r="D9">
-        <v>849.5</v>
+        <v>1536.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>651</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>331.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>61</v>
       </c>
       <c r="C11">
-        <v>628</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>344.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>45</v>
       </c>
       <c r="C12">
-        <v>654</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>349.5</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -565,10 +565,10 @@
         <v>1296</v>
       </c>
       <c r="C13">
-        <v>656</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>656</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,10 +579,10 @@
         <v>917</v>
       </c>
       <c r="C14">
-        <v>1290</v>
+        <v>794</v>
       </c>
       <c r="D14">
-        <v>1103.5</v>
+        <v>855.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +593,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>644</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>324.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>645</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>325.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -621,7 +621,7 @@
         <v>226.2142857142857</v>
       </c>
       <c r="C17">
-        <v>672.7333333333333</v>
+        <v>228.4</v>
       </c>
     </row>
   </sheetData>
